--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanOverdue.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanOverdue.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D388D4-B1BD-4F84-B511-6AC53AC23505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -304,11 +314,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-990: 催收款項</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>撥款序號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -385,18 +390,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1: 催收
-2. 部分轉呆
-3: 呆帳
-4: 催收回復
-5: 催呆結案</t>
+    <t>1:催收
+2.部分轉呆
+3:呆帳
+4:催收回復
+5:催呆結案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+990:催收款項</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -739,6 +749,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -774,6 +801,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -949,11 +993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1191,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>64</v>
@@ -1199,7 +1243,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1222,7 +1266,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="24" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -1321,7 +1365,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>64</v>
@@ -1356,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -1369,7 +1413,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>64</v>
@@ -1389,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>28</v>
@@ -1412,7 +1456,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>26</v>
@@ -1435,7 +1479,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>27</v>
@@ -1450,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -1460,7 +1504,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>22</v>
@@ -1483,10 +1527,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>64</v>
@@ -1506,10 +1550,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>64</v>
@@ -1544,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -1554,7 +1598,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>23</v>
@@ -1600,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>74</v>
@@ -1770,7 +1814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1799,13 +1843,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
